--- a/src/test/resources/testData/VehicleInsuranceCalcualator_TestData.xlsx
+++ b/src/test/resources/testData/VehicleInsuranceCalcualator_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshith Somanna PB\eclipse-workspace\Tutorial.InsuranceCalculator\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07352C4E-821C-4B7B-A213-2661A5C60BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560F0B12-1DCF-4397-BBE5-39279A92BD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A380FA76-9CC6-4F4D-9280-5EC28A377BCB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>TC No</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>772.00</t>
+  </si>
+  <si>
+    <t>262.00</t>
+  </si>
+  <si>
+    <t>1,515.00</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,13 +951,13 @@
         <v>37</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>74</v>
